--- a/docs/resource/ApartmentLocation2021-03-28.xlsx
+++ b/docs/resource/ApartmentLocation2021-03-28.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PythonProjects\McMasterGradStuManual\docs\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{471D6D55-FEFB-4821-A75E-00EB52BEA462}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEDAEF5B-BDB0-4F36-AE87-A220C4EDBB5B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10403" yWindow="968" windowWidth="24464" windowHeight="19680" xr2:uid="{5DEBA4B1-7EA9-4F54-9729-F2E2627657AD}"/>
+    <workbookView xWindow="12967" yWindow="1042" windowWidth="24465" windowHeight="19620" xr2:uid="{5DEBA4B1-7EA9-4F54-9729-F2E2627657AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -3080,8 +3080,9 @@
     <hyperlink ref="D92" r:id="rId5" xr:uid="{C599742B-D039-45B6-9849-F24BD7EFA937}"/>
     <hyperlink ref="D60" r:id="rId6" xr:uid="{7224EE65-8B30-40CB-860E-BF1188428B31}"/>
     <hyperlink ref="D61" r:id="rId7" xr:uid="{2E028E5F-357A-4BED-8EFF-6779F1AF1E44}"/>
+    <hyperlink ref="D102" r:id="rId8" xr:uid="{EC6E2BBF-D9B7-480F-8F8A-7899D61A2676}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>